--- a/DjangoProdactionControl/_CompasPy/test.xlsx
+++ b/DjangoProdactionControl/_CompasPy/test.xlsx
@@ -1,87 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\django\DjangoProdactionControl\_CompasPy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
-  <si>
-    <t>d:\django\DjangoProdactionControl\_CompasPy\files\tdk-kosoy\ТДК Косой _ Zebra 000.cdw</t>
-  </si>
-  <si>
-    <t>Системный вид</t>
-  </si>
-  <si>
-    <t>0x0</t>
-  </si>
-  <si>
-    <t>Спереди 1</t>
-  </si>
-  <si>
-    <t>0x3.0</t>
-  </si>
-  <si>
-    <t>Проекционный вид 2</t>
-  </si>
-  <si>
-    <t>17.77x33.0</t>
-  </si>
-  <si>
-    <t>Разрез А-А</t>
-  </si>
-  <si>
-    <t>Вид 4</t>
-  </si>
-  <si>
-    <t>Вид 5</t>
-  </si>
-  <si>
-    <t>Filename</t>
-  </si>
-  <si>
-    <t>ТДК Косой _ Zebra 000.cdw</t>
-  </si>
-  <si>
-    <t>d:\django\DjangoProdactionControl\_CompasPy\files\reduktor\Редуктор.cdw</t>
-  </si>
-  <si>
-    <t>233.78x177.97</t>
-  </si>
-  <si>
-    <t>Редуктор.cdw</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -402,115 +408,561 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="81.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Системный вид</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Вид 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4741.0x3230.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Разрез Г-Г</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4738.0x4738.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Проекционный вид 4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Выносной элемент Б</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.0x20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Вид по стрелке А</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>490.0x490.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Разрез Д-Д</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Разрез И-И</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Разрез Е-Е</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Разрез Ж-Ж</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Разрез К-К</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Разрез Л-Л</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Выносной элемент В</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Вид 20</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4741.0x3460.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Проекционный вид 21</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Разрез М-М</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Системный вид</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Вид 1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4741.0x3230.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Разрез Г-Г</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4738.0x4738.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Проекционный вид 4</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Выносной элемент Б</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20.0x20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Вид по стрелке А</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>490.0x490.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Разрез Д-Д</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Разрез И-И</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Разрез Е-Е</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Разрез Ж-Ж</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Разрез К-К</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Разрез Л-Л</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Выносной элемент В</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Вид 20</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4741.0x3460.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Проекционный вид 21</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>d:\Documents\_CompasPy\files\СК4845.01.00.00.000 Дно конусное\СК4845.01.00.00.000 СБ Дно конусное .cdw</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Разрез М-М</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.0x0.0</t>
+        </is>
       </c>
     </row>
   </sheetData>
